--- a/out/production/Project3/User.xlsx
+++ b/out/production/Project3/User.xlsx
@@ -1,32 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D657900-08E3-4A7C-89B5-1A31147E7B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>Nume</t>
   </si>
@@ -43,65 +31,315 @@
     <t>ID</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>&amp;5325</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>Andrei</t>
+  </si>
+  <si>
+    <t>Ioan</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>xzy</t>
+  </si>
+  <si>
+    <t>&amp;6252</t>
+  </si>
+  <si>
+    <t>Marius</t>
+  </si>
+  <si>
+    <t>Pop</t>
   </si>
   <si>
     <t>&amp;2342</t>
   </si>
   <si>
-    <t>Q</t>
+    <t>Marcel</t>
+  </si>
+  <si>
+    <t>Popan</t>
+  </si>
+  <si>
+    <t>&amp;2552</t>
+  </si>
+  <si>
+    <t>Mircea</t>
+  </si>
+  <si>
+    <t>Ionescu</t>
+  </si>
+  <si>
+    <t>&amp;1234</t>
+  </si>
+  <si>
+    <t>Andreea</t>
+  </si>
+  <si>
+    <t>Traian</t>
+  </si>
+  <si>
+    <t>&amp;1235</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Gigel</t>
+  </si>
+  <si>
+    <t>&amp;3245</t>
+  </si>
+  <si>
+    <t>Iulia</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>&amp;5555</t>
+  </si>
+  <si>
+    <t>Geta</t>
+  </si>
+  <si>
+    <t>Serghei</t>
+  </si>
+  <si>
+    <t>&amp;5556</t>
+  </si>
+  <si>
+    <t>Barabas</t>
+  </si>
+  <si>
+    <t>&amp;5557</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Darius</t>
+  </si>
+  <si>
+    <t>&amp;6346</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Pavel</t>
+  </si>
+  <si>
+    <t>&amp;5432</t>
+  </si>
+  <si>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>&amp;5444</t>
+  </si>
+  <si>
+    <t>Gelu</t>
+  </si>
+  <si>
+    <t>Gino</t>
+  </si>
+  <si>
+    <t>&amp;8776</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Vlad</t>
+  </si>
+  <si>
+    <t>&amp;5235</t>
+  </si>
+  <si>
+    <t>Silviu</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>&amp;2552</t>
+    <t>&amp;9999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +352,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -151,28 +575,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -221,7 +931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -254,26 +964,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -306,23 +999,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,29 +1140,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7777777777778"/>
+    <col min="16" max="16" width="11.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,14 +1168,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -513,14 +1185,14 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -528,33 +1200,48 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -562,6 +1249,21 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -569,6 +1271,21 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -576,13 +1293,165 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>